--- a/software/resultados_ciclogen.xlsx
+++ b/software/resultados_ciclogen.xlsx
@@ -416,16 +416,16 @@
         <v>220</v>
       </c>
       <c r="C2" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="D2" t="n">
         <v>43</v>
       </c>
       <c r="E2" t="n">
-        <v>3209.195570495281</v>
+        <v>3442.630110132186</v>
       </c>
       <c r="F2" t="n">
-        <v>6.732031496633433</v>
+        <v>7.055493181446727</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -446,16 +446,16 @@
         <v>181.06</v>
       </c>
       <c r="C3" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="D3" t="n">
         <v>43</v>
       </c>
       <c r="E3" t="n">
-        <v>3209.195570495281</v>
+        <v>3442.630110132186</v>
       </c>
       <c r="F3" t="n">
-        <v>6.732031496633433</v>
+        <v>7.055493181446727</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -476,24 +476,26 @@
         <v>181.06</v>
       </c>
       <c r="C4" t="n">
-        <v>127.4114064737958</v>
+        <v>197.2312312128838</v>
       </c>
       <c r="D4" t="n">
         <v>2.5</v>
       </c>
       <c r="E4" t="n">
-        <v>2712.353148957555</v>
+        <v>2862.693739723754</v>
       </c>
       <c r="F4" t="n">
-        <v>7.042122791942876</v>
+        <v>7.389269495789087</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Região Bifásica</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>99.81035644793086</v>
+          <t>Vapor Superaquecido</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -504,16 +506,16 @@
         <v>38.94000000000001</v>
       </c>
       <c r="C5" t="n">
-        <v>400.0000000000002</v>
+        <v>499.9999999999997</v>
       </c>
       <c r="D5" t="n">
         <v>43</v>
       </c>
       <c r="E5" t="n">
-        <v>3209.195570495281</v>
+        <v>3442.630110132186</v>
       </c>
       <c r="F5" t="n">
-        <v>6.732031496633434</v>
+        <v>7.055493181446725</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -540,10 +542,10 @@
         <v>0.08</v>
       </c>
       <c r="E6" t="n">
-        <v>2326.399101773463</v>
+        <v>2454.510053239493</v>
       </c>
       <c r="F6" t="n">
-        <v>7.433423421450928</v>
+        <v>7.840565905693349</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -551,7 +553,7 @@
         </is>
       </c>
       <c r="H6" t="n">
-        <v>89.60164220786524</v>
+        <v>94.93434158050859</v>
       </c>
     </row>
     <row r="7">
@@ -680,24 +682,26 @@
         <v>181.06</v>
       </c>
       <c r="C11" t="n">
-        <v>127.4114064737958</v>
+        <v>197.2312312128838</v>
       </c>
       <c r="D11" t="n">
         <v>2.5</v>
       </c>
       <c r="E11" t="n">
-        <v>2712.353148957555</v>
+        <v>2862.693739723754</v>
       </c>
       <c r="F11" t="n">
-        <v>7.042122791942876</v>
+        <v>7.389269495789087</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Região Bifásica</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>99.81035644793086</v>
+          <t>Vapor Superaquecido</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="12">
@@ -708,24 +712,26 @@
         <v>175.08502</v>
       </c>
       <c r="C12" t="n">
-        <v>127.4114064737958</v>
+        <v>197.2312312128838</v>
       </c>
       <c r="D12" t="n">
         <v>2.5</v>
       </c>
       <c r="E12" t="n">
-        <v>2712.353148957555</v>
+        <v>2862.693739723754</v>
       </c>
       <c r="F12" t="n">
-        <v>7.042122791942876</v>
+        <v>7.389269495789087</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Região Bifásica</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>99.81035644793086</v>
+          <t>Vapor Superaquecido</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="13">
@@ -736,24 +742,26 @@
         <v>175.08502</v>
       </c>
       <c r="C13" t="n">
-        <v>127.4114064737958</v>
+        <v>197.2312312128838</v>
       </c>
       <c r="D13" t="n">
         <v>2.5</v>
       </c>
       <c r="E13" t="n">
-        <v>2712.353148957555</v>
+        <v>2862.693739723753</v>
       </c>
       <c r="F13" t="n">
-        <v>7.042122791942876</v>
+        <v>7.389269495789087</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Região Bifásica</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>99.81035644793086</v>
+          <t>Vapor Superaquecido</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="14">
@@ -794,24 +802,26 @@
         <v>5.97498</v>
       </c>
       <c r="C15" t="n">
-        <v>127.4114064737958</v>
+        <v>197.2312312128838</v>
       </c>
       <c r="D15" t="n">
         <v>2.5</v>
       </c>
       <c r="E15" t="n">
-        <v>2712.353148957555</v>
+        <v>2862.693739723754</v>
       </c>
       <c r="F15" t="n">
-        <v>7.042122791942876</v>
+        <v>7.389269495789087</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Região Bifásica</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>99.81035644793086</v>
+          <t>Vapor Superaquecido</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="16">
@@ -822,16 +832,16 @@
         <v>220</v>
       </c>
       <c r="C16" t="n">
-        <v>125.9550706023256</v>
+        <v>126.9147326281057</v>
       </c>
       <c r="D16" t="n">
         <v>2.5</v>
       </c>
       <c r="E16" t="n">
-        <v>529.1480048291152</v>
+        <v>533.2311049337343</v>
       </c>
       <c r="F16" t="n">
-        <v>1.591731415419569</v>
+        <v>1.60194977379075</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -852,16 +862,16 @@
         <v>220</v>
       </c>
       <c r="C17" t="n">
-        <v>126.6540476350015</v>
+        <v>127.6170031366784</v>
       </c>
       <c r="D17" t="n">
         <v>43</v>
       </c>
       <c r="E17" t="n">
-        <v>534.9034782398285</v>
+        <v>538.9915111262587</v>
       </c>
       <c r="F17" t="n">
-        <v>1.59534203844395</v>
+        <v>1.605554834718596</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>

--- a/software/resultados_ciclogen.xlsx
+++ b/software/resultados_ciclogen.xlsx
@@ -416,16 +416,16 @@
         <v>220</v>
       </c>
       <c r="C2" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="D2" t="n">
         <v>43</v>
       </c>
       <c r="E2" t="n">
-        <v>3442.630110132186</v>
+        <v>3209.195570495281</v>
       </c>
       <c r="F2" t="n">
-        <v>7.055493181446727</v>
+        <v>6.732031496633433</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -443,19 +443,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>181.06</v>
+        <v>180.994</v>
       </c>
       <c r="C3" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="D3" t="n">
         <v>43</v>
       </c>
       <c r="E3" t="n">
-        <v>3442.630110132186</v>
+        <v>3209.195570495281</v>
       </c>
       <c r="F3" t="n">
-        <v>7.055493181446727</v>
+        <v>6.732031496633433</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -473,29 +473,27 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>181.06</v>
+        <v>180.994</v>
       </c>
       <c r="C4" t="n">
-        <v>197.2312312128838</v>
+        <v>127.4114064737958</v>
       </c>
       <c r="D4" t="n">
         <v>2.5</v>
       </c>
       <c r="E4" t="n">
-        <v>2862.693739723754</v>
+        <v>2712.353148957555</v>
       </c>
       <c r="F4" t="n">
-        <v>7.389269495789087</v>
+        <v>7.042122791942876</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Vapor Superaquecido</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>Região Bifásica</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>99.81035644793086</v>
       </c>
     </row>
     <row r="5">
@@ -503,19 +501,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>38.94000000000001</v>
+        <v>39.00600000000001</v>
       </c>
       <c r="C5" t="n">
-        <v>499.9999999999997</v>
+        <v>400.0000000000002</v>
       </c>
       <c r="D5" t="n">
         <v>43</v>
       </c>
       <c r="E5" t="n">
-        <v>3442.630110132186</v>
+        <v>3209.195570495281</v>
       </c>
       <c r="F5" t="n">
-        <v>7.055493181446725</v>
+        <v>6.732031496633434</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -533,7 +531,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>38.94000000000001</v>
+        <v>39.00600000000001</v>
       </c>
       <c r="C6" t="n">
         <v>41.50876547963827</v>
@@ -542,10 +540,10 @@
         <v>0.08</v>
       </c>
       <c r="E6" t="n">
-        <v>2454.510053239493</v>
+        <v>2326.399101773463</v>
       </c>
       <c r="F6" t="n">
-        <v>7.840565905693349</v>
+        <v>7.433423421450928</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -553,7 +551,7 @@
         </is>
       </c>
       <c r="H6" t="n">
-        <v>94.93434158050859</v>
+        <v>89.60164220786524</v>
       </c>
     </row>
     <row r="7">
@@ -561,7 +559,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>38.94000000000001</v>
+        <v>39.00600000000001</v>
       </c>
       <c r="C7" t="n">
         <v>41.50876547963827</v>
@@ -589,7 +587,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>38.94000000000001</v>
+        <v>39.00600000000001</v>
       </c>
       <c r="C8" t="n">
         <v>41.53552743030059</v>
@@ -619,7 +617,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>38.94000000000001</v>
+        <v>39.00600000000001</v>
       </c>
       <c r="C9" t="n">
         <v>41.53552743030059</v>
@@ -679,29 +677,27 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>181.06</v>
+        <v>180.994</v>
       </c>
       <c r="C11" t="n">
-        <v>197.2312312128838</v>
+        <v>127.4114064737958</v>
       </c>
       <c r="D11" t="n">
         <v>2.5</v>
       </c>
       <c r="E11" t="n">
-        <v>2862.693739723754</v>
+        <v>2712.353148957555</v>
       </c>
       <c r="F11" t="n">
-        <v>7.389269495789087</v>
+        <v>7.042122791942876</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Vapor Superaquecido</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>Região Bifásica</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>99.81035644793086</v>
       </c>
     </row>
     <row r="12">
@@ -709,29 +705,27 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>175.08502</v>
+        <v>175.021198</v>
       </c>
       <c r="C12" t="n">
-        <v>197.2312312128838</v>
+        <v>127.4114064737958</v>
       </c>
       <c r="D12" t="n">
         <v>2.5</v>
       </c>
       <c r="E12" t="n">
-        <v>2862.693739723754</v>
+        <v>2712.353148957555</v>
       </c>
       <c r="F12" t="n">
-        <v>7.389269495789087</v>
+        <v>7.042122791942876</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Vapor Superaquecido</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>Região Bifásica</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>99.81035644793086</v>
       </c>
     </row>
     <row r="13">
@@ -739,29 +733,27 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>175.08502</v>
+        <v>175.021198</v>
       </c>
       <c r="C13" t="n">
-        <v>197.2312312128838</v>
+        <v>127.4114064737958</v>
       </c>
       <c r="D13" t="n">
         <v>2.5</v>
       </c>
       <c r="E13" t="n">
-        <v>2862.693739723753</v>
+        <v>2712.353148957555</v>
       </c>
       <c r="F13" t="n">
-        <v>7.389269495789087</v>
+        <v>7.042122791942876</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Vapor Superaquecido</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>Região Bifásica</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>99.81035644793086</v>
       </c>
     </row>
     <row r="14">
@@ -769,19 +761,19 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>175.08502</v>
+        <v>175.021198</v>
       </c>
       <c r="C14" t="n">
-        <v>127</v>
+        <v>127.4</v>
       </c>
       <c r="D14" t="n">
         <v>2.5</v>
       </c>
       <c r="E14" t="n">
-        <v>533.5939774433314</v>
+        <v>535.2964406724388</v>
       </c>
       <c r="F14" t="n">
-        <v>1.602856711637269</v>
+        <v>1.607109149115328</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -799,29 +791,27 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>5.97498</v>
+        <v>5.972802</v>
       </c>
       <c r="C15" t="n">
-        <v>197.2312312128838</v>
+        <v>127.4114064737958</v>
       </c>
       <c r="D15" t="n">
         <v>2.5</v>
       </c>
       <c r="E15" t="n">
-        <v>2862.693739723754</v>
+        <v>2712.353148957555</v>
       </c>
       <c r="F15" t="n">
-        <v>7.389269495789087</v>
+        <v>7.042122791942876</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Vapor Superaquecido</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>Região Bifásica</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>99.81035644793086</v>
       </c>
     </row>
     <row r="16">
@@ -832,16 +822,16 @@
         <v>220</v>
       </c>
       <c r="C16" t="n">
-        <v>126.9147326281057</v>
+        <v>126.2430273667171</v>
       </c>
       <c r="D16" t="n">
         <v>2.5</v>
       </c>
       <c r="E16" t="n">
-        <v>533.2311049337343</v>
+        <v>530.3730026353261</v>
       </c>
       <c r="F16" t="n">
-        <v>1.60194977379075</v>
+        <v>1.594799670317615</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -862,16 +852,16 @@
         <v>220</v>
       </c>
       <c r="C17" t="n">
-        <v>127.6170031366784</v>
+        <v>126.9429908512674</v>
       </c>
       <c r="D17" t="n">
         <v>43</v>
       </c>
       <c r="E17" t="n">
-        <v>538.9915111262587</v>
+        <v>536.1299526806472</v>
       </c>
       <c r="F17" t="n">
-        <v>1.605554834718596</v>
+        <v>1.598408619331588</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>

--- a/software/resultados_ciclogen.xlsx
+++ b/software/resultados_ciclogen.xlsx
@@ -413,19 +413,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>220</v>
+        <v>160</v>
       </c>
       <c r="C2" t="n">
-        <v>400</v>
+        <v>530</v>
       </c>
       <c r="D2" t="n">
-        <v>43</v>
+        <v>68.59999999999999</v>
       </c>
       <c r="E2" t="n">
-        <v>3209.195570495281</v>
+        <v>3485.213776102411</v>
       </c>
       <c r="F2" t="n">
-        <v>6.732031496633433</v>
+        <v>6.902482648627746</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -443,19 +443,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>180.994</v>
+        <v>132.08</v>
       </c>
       <c r="C3" t="n">
-        <v>400</v>
+        <v>530</v>
       </c>
       <c r="D3" t="n">
-        <v>43</v>
+        <v>68.59999999999999</v>
       </c>
       <c r="E3" t="n">
-        <v>3209.195570495281</v>
+        <v>3485.213776102411</v>
       </c>
       <c r="F3" t="n">
-        <v>6.732031496633433</v>
+        <v>6.902482648627746</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -473,27 +473,29 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>180.994</v>
+        <v>132.08</v>
       </c>
       <c r="C4" t="n">
-        <v>127.4114064737958</v>
+        <v>159.7812814725972</v>
       </c>
       <c r="D4" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="E4" t="n">
-        <v>2712.353148957555</v>
+        <v>2786.064460246689</v>
       </c>
       <c r="F4" t="n">
-        <v>7.042122791942876</v>
+        <v>7.228660146296163</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Região Bifásica</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>99.81035644793086</v>
+          <t>Vapor Superaquecido</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,19 +503,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>39.00600000000001</v>
+        <v>27.91999999999999</v>
       </c>
       <c r="C5" t="n">
-        <v>400.0000000000002</v>
+        <v>530.0000000000011</v>
       </c>
       <c r="D5" t="n">
-        <v>43</v>
+        <v>68.59999999999999</v>
       </c>
       <c r="E5" t="n">
-        <v>3209.195570495281</v>
+        <v>3485.213776102411</v>
       </c>
       <c r="F5" t="n">
-        <v>6.732031496633434</v>
+        <v>6.902482648627751</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -531,19 +533,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>39.00600000000001</v>
+        <v>27.91999999999999</v>
       </c>
       <c r="C6" t="n">
-        <v>41.50876547963827</v>
+        <v>38.99956426486409</v>
       </c>
       <c r="D6" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E6" t="n">
-        <v>2326.399101773463</v>
+        <v>2331.303774018709</v>
       </c>
       <c r="F6" t="n">
-        <v>7.433423421450928</v>
+        <v>7.504264088672651</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -551,7 +553,7 @@
         </is>
       </c>
       <c r="H6" t="n">
-        <v>89.60164220786524</v>
+        <v>90.0174392244687</v>
       </c>
     </row>
     <row r="7">
@@ -559,19 +561,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>39.00600000000001</v>
+        <v>27.91999999999999</v>
       </c>
       <c r="C7" t="n">
-        <v>41.50876547963827</v>
+        <v>38.99956426486409</v>
       </c>
       <c r="D7" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E7" t="n">
-        <v>173.8398003706382</v>
+        <v>163.3512673682423</v>
       </c>
       <c r="F7" t="n">
-        <v>0.5924911559165427</v>
+        <v>0.5590277185493048</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -587,19 +589,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>39.00600000000001</v>
+        <v>27.91999999999999</v>
       </c>
       <c r="C8" t="n">
-        <v>41.53552743030059</v>
+        <v>39.02067795040313</v>
       </c>
       <c r="D8" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="E8" t="n">
-        <v>174.1652036954723</v>
+        <v>163.6509992315139</v>
       </c>
       <c r="F8" t="n">
-        <v>0.5927497189589911</v>
+        <v>0.5592197932063425</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -617,19 +619,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>39.00600000000001</v>
+        <v>25.32343999999999</v>
       </c>
       <c r="C9" t="n">
-        <v>41.53552743030059</v>
+        <v>39.02067795040313</v>
       </c>
       <c r="D9" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="E9" t="n">
-        <v>174.1652036954723</v>
+        <v>163.6509992315139</v>
       </c>
       <c r="F9" t="n">
-        <v>0.5927497189589911</v>
+        <v>0.5592197932063425</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -647,19 +649,19 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>2.596559999999999</v>
       </c>
       <c r="C10" t="n">
-        <v>41.53552743030059</v>
+        <v>39.02067795040313</v>
       </c>
       <c r="D10" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="E10" t="n">
-        <v>174.1652036954723</v>
+        <v>163.6509992315139</v>
       </c>
       <c r="F10" t="n">
-        <v>0.5927497189589911</v>
+        <v>0.5592197932063425</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -677,27 +679,29 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>180.994</v>
+        <v>132.08</v>
       </c>
       <c r="C11" t="n">
-        <v>127.4114064737958</v>
+        <v>159.7812814725972</v>
       </c>
       <c r="D11" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="E11" t="n">
-        <v>2712.353148957555</v>
+        <v>2786.064460246689</v>
       </c>
       <c r="F11" t="n">
-        <v>7.042122791942876</v>
+        <v>7.228660146296163</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Região Bifásica</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>99.81035644793086</v>
+          <t>Vapor Superaquecido</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="12">
@@ -705,27 +709,29 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>175.021198</v>
+        <v>127.39116</v>
       </c>
       <c r="C12" t="n">
-        <v>127.4114064737958</v>
+        <v>159.7812814725972</v>
       </c>
       <c r="D12" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="E12" t="n">
-        <v>2712.353148957555</v>
+        <v>2786.064460246689</v>
       </c>
       <c r="F12" t="n">
-        <v>7.042122791942876</v>
+        <v>7.228660146296163</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Região Bifásica</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>99.81035644793086</v>
+          <t>Vapor Superaquecido</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="13">
@@ -733,27 +739,29 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>175.021198</v>
+        <v>129.98772</v>
       </c>
       <c r="C13" t="n">
-        <v>127.4114064737958</v>
+        <v>135.0292052535333</v>
       </c>
       <c r="D13" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="E13" t="n">
-        <v>2712.353148957555</v>
+        <v>2733.680635864404</v>
       </c>
       <c r="F13" t="n">
-        <v>7.042122791942876</v>
+        <v>7.104042352822478</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Região Bifásica</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>99.81035644793086</v>
+          <t>Vapor Superaquecido</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="14">
@@ -761,19 +769,19 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>175.021198</v>
+        <v>129.98772</v>
       </c>
       <c r="C14" t="n">
-        <v>127.4</v>
+        <v>124.7</v>
       </c>
       <c r="D14" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="E14" t="n">
-        <v>535.2964406724388</v>
+        <v>523.807129249501</v>
       </c>
       <c r="F14" t="n">
-        <v>1.607109149115328</v>
+        <v>1.57834156883671</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -791,27 +799,29 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>5.972802</v>
+        <v>4.68884</v>
       </c>
       <c r="C15" t="n">
-        <v>127.4114064737958</v>
+        <v>159.7812814725972</v>
       </c>
       <c r="D15" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="E15" t="n">
-        <v>2712.353148957555</v>
+        <v>2786.064460246689</v>
       </c>
       <c r="F15" t="n">
-        <v>7.042122791942876</v>
+        <v>7.228660146296163</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Região Bifásica</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>99.81035644793086</v>
+          <t>Vapor Superaquecido</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="16">
@@ -819,29 +829,27 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>220</v>
+        <v>160</v>
       </c>
       <c r="C16" t="n">
-        <v>126.2430273667171</v>
+        <v>126.747064986006</v>
       </c>
       <c r="D16" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="E16" t="n">
-        <v>530.3730026353261</v>
+        <v>533.1006949665644</v>
       </c>
       <c r="F16" t="n">
-        <v>1.594799670317615</v>
+        <v>1.601637374616852</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Liquido Comprimido</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>Região Bifásica</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>0.02686702242006119</v>
       </c>
     </row>
     <row r="17">
@@ -849,19 +857,19 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>220</v>
+        <v>160</v>
       </c>
       <c r="C17" t="n">
-        <v>126.9429908512674</v>
+        <v>128.2762379870366</v>
       </c>
       <c r="D17" t="n">
-        <v>43</v>
+        <v>68.59999999999999</v>
       </c>
       <c r="E17" t="n">
-        <v>536.1299526806472</v>
+        <v>543.5447035810124</v>
       </c>
       <c r="F17" t="n">
-        <v>1.598408619331588</v>
+        <v>1.610111681974117</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>

--- a/software/resultados_ciclogen.xlsx
+++ b/software/resultados_ciclogen.xlsx
@@ -413,19 +413,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>160</v>
+        <v>220</v>
       </c>
       <c r="C2" t="n">
-        <v>530</v>
+        <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>68.59999999999999</v>
+        <v>43</v>
       </c>
       <c r="E2" t="n">
-        <v>3485.213776102411</v>
+        <v>3209.195570495281</v>
       </c>
       <c r="F2" t="n">
-        <v>6.902482648627746</v>
+        <v>6.732031496633433</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -443,19 +443,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>132.08</v>
+        <v>180.994</v>
       </c>
       <c r="C3" t="n">
-        <v>530</v>
+        <v>400</v>
       </c>
       <c r="D3" t="n">
-        <v>68.59999999999999</v>
+        <v>43</v>
       </c>
       <c r="E3" t="n">
-        <v>3485.213776102411</v>
+        <v>3209.195570495281</v>
       </c>
       <c r="F3" t="n">
-        <v>6.902482648627746</v>
+        <v>6.732031496633433</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -473,29 +473,27 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>132.08</v>
+        <v>180.994</v>
       </c>
       <c r="C4" t="n">
-        <v>159.7812814725972</v>
+        <v>127.4114064737958</v>
       </c>
       <c r="D4" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="E4" t="n">
-        <v>2786.064460246689</v>
+        <v>2685.02681577298</v>
       </c>
       <c r="F4" t="n">
-        <v>7.228660146296163</v>
+        <v>6.973902706974799</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Vapor Superaquecido</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>Região Bifásica</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>98.55751270092014</v>
       </c>
     </row>
     <row r="5">
@@ -503,19 +501,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>27.91999999999999</v>
+        <v>39.00600000000001</v>
       </c>
       <c r="C5" t="n">
-        <v>530.0000000000011</v>
+        <v>400.0000000000002</v>
       </c>
       <c r="D5" t="n">
-        <v>68.59999999999999</v>
+        <v>43</v>
       </c>
       <c r="E5" t="n">
-        <v>3485.213776102411</v>
+        <v>3209.195570495281</v>
       </c>
       <c r="F5" t="n">
-        <v>6.902482648627751</v>
+        <v>6.732031496633434</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -533,19 +531,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>27.91999999999999</v>
+        <v>39.00600000000001</v>
       </c>
       <c r="C6" t="n">
-        <v>38.99956426486409</v>
+        <v>41.50876547963827</v>
       </c>
       <c r="D6" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="E6" t="n">
-        <v>2331.303774018709</v>
+        <v>2277.845295993763</v>
       </c>
       <c r="F6" t="n">
-        <v>7.504264088672651</v>
+        <v>7.27911719799108</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -553,7 +551,7 @@
         </is>
       </c>
       <c r="H6" t="n">
-        <v>90.0174392244687</v>
+        <v>87.58055933666739</v>
       </c>
     </row>
     <row r="7">
@@ -561,19 +559,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>27.91999999999999</v>
+        <v>39.00600000000001</v>
       </c>
       <c r="C7" t="n">
-        <v>38.99956426486409</v>
+        <v>41.50876547963827</v>
       </c>
       <c r="D7" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="E7" t="n">
-        <v>163.3512673682423</v>
+        <v>173.8398003706382</v>
       </c>
       <c r="F7" t="n">
-        <v>0.5590277185493048</v>
+        <v>0.5924911559165427</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -589,19 +587,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>27.91999999999999</v>
+        <v>39.00600000000001</v>
       </c>
       <c r="C8" t="n">
-        <v>39.02067795040313</v>
+        <v>41.53552743030059</v>
       </c>
       <c r="D8" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="E8" t="n">
-        <v>163.6509992315139</v>
+        <v>174.1652036954723</v>
       </c>
       <c r="F8" t="n">
-        <v>0.5592197932063425</v>
+        <v>0.5927497189589911</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -619,19 +617,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>25.32343999999999</v>
+        <v>39.00600000000001</v>
       </c>
       <c r="C9" t="n">
-        <v>39.02067795040313</v>
+        <v>41.53552743030059</v>
       </c>
       <c r="D9" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="E9" t="n">
-        <v>163.6509992315139</v>
+        <v>174.1652036954723</v>
       </c>
       <c r="F9" t="n">
-        <v>0.5592197932063425</v>
+        <v>0.5927497189589911</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -649,19 +647,19 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>2.596559999999999</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>39.02067795040313</v>
+        <v>41.53552743030059</v>
       </c>
       <c r="D10" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="E10" t="n">
-        <v>163.6509992315139</v>
+        <v>174.1652036954723</v>
       </c>
       <c r="F10" t="n">
-        <v>0.5592197932063425</v>
+        <v>0.5927497189589911</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -679,29 +677,27 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>132.08</v>
+        <v>180.994</v>
       </c>
       <c r="C11" t="n">
-        <v>159.7812814725972</v>
+        <v>127.4114064737958</v>
       </c>
       <c r="D11" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="E11" t="n">
-        <v>2786.064460246689</v>
+        <v>2685.02681577298</v>
       </c>
       <c r="F11" t="n">
-        <v>7.228660146296163</v>
+        <v>6.973902706974799</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Vapor Superaquecido</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>Região Bifásica</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>98.55751270092014</v>
       </c>
     </row>
     <row r="12">
@@ -709,29 +705,27 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>127.39116</v>
+        <v>175.021198</v>
       </c>
       <c r="C12" t="n">
-        <v>159.7812814725972</v>
+        <v>127.4114064737958</v>
       </c>
       <c r="D12" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="E12" t="n">
-        <v>2786.064460246689</v>
+        <v>2685.02681577298</v>
       </c>
       <c r="F12" t="n">
-        <v>7.228660146296163</v>
+        <v>6.973902706974799</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Vapor Superaquecido</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>Região Bifásica</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>98.55751270092014</v>
       </c>
     </row>
     <row r="13">
@@ -739,29 +733,27 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>129.98772</v>
+        <v>175.021198</v>
       </c>
       <c r="C13" t="n">
-        <v>135.0292052535333</v>
+        <v>127.4114064737958</v>
       </c>
       <c r="D13" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="E13" t="n">
-        <v>2733.680635864404</v>
+        <v>2685.02681577298</v>
       </c>
       <c r="F13" t="n">
-        <v>7.104042352822478</v>
+        <v>6.973902706974799</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Vapor Superaquecido</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>Região Bifásica</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>98.55751270092014</v>
       </c>
     </row>
     <row r="14">
@@ -769,19 +761,19 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>129.98772</v>
+        <v>175.021198</v>
       </c>
       <c r="C14" t="n">
-        <v>124.7</v>
+        <v>127.41</v>
       </c>
       <c r="D14" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="E14" t="n">
-        <v>523.807129249501</v>
+        <v>535.3390061182986</v>
       </c>
       <c r="F14" t="n">
-        <v>1.57834156883671</v>
+        <v>1.607215415285576</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -799,29 +791,27 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>4.68884</v>
+        <v>5.972802</v>
       </c>
       <c r="C15" t="n">
-        <v>159.7812814725972</v>
+        <v>127.4114064737958</v>
       </c>
       <c r="D15" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="E15" t="n">
-        <v>2786.064460246689</v>
+        <v>2685.02681577298</v>
       </c>
       <c r="F15" t="n">
-        <v>7.228660146296163</v>
+        <v>6.973902706974799</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Vapor Superaquecido</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>Região Bifásica</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>98.55751270092014</v>
       </c>
     </row>
     <row r="16">
@@ -829,27 +819,29 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>160</v>
+        <v>220</v>
       </c>
       <c r="C16" t="n">
-        <v>126.747064986006</v>
+        <v>126.0765989488615</v>
       </c>
       <c r="D16" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="E16" t="n">
-        <v>533.1006949665644</v>
+        <v>529.6649802618274</v>
       </c>
       <c r="F16" t="n">
-        <v>1.601637374616852</v>
+        <v>1.593026554910377</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Região Bifásica</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>0.02686702242006119</v>
+          <t>Liquido Comprimido</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="17">
@@ -857,19 +849,19 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>160</v>
+        <v>220</v>
       </c>
       <c r="C17" t="n">
-        <v>128.2762379870366</v>
+        <v>126.775992114098</v>
       </c>
       <c r="D17" t="n">
-        <v>68.59999999999999</v>
+        <v>43</v>
       </c>
       <c r="E17" t="n">
-        <v>543.5447035810124</v>
+        <v>535.4210765012648</v>
       </c>
       <c r="F17" t="n">
-        <v>1.610111681974117</v>
+        <v>1.596636470912502</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>

--- a/software/resultados_ciclogen.xlsx
+++ b/software/resultados_ciclogen.xlsx
@@ -413,19 +413,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>220</v>
+        <v>160</v>
       </c>
       <c r="C2" t="n">
-        <v>400</v>
+        <v>530</v>
       </c>
       <c r="D2" t="n">
-        <v>43</v>
+        <v>68.59999999999999</v>
       </c>
       <c r="E2" t="n">
-        <v>3209.195570495281</v>
+        <v>3485.213776102411</v>
       </c>
       <c r="F2" t="n">
-        <v>6.732031496633433</v>
+        <v>6.902482648627746</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -443,19 +443,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>180.994</v>
+        <v>160</v>
       </c>
       <c r="C3" t="n">
-        <v>400</v>
+        <v>530</v>
       </c>
       <c r="D3" t="n">
-        <v>43</v>
+        <v>68.59999999999999</v>
       </c>
       <c r="E3" t="n">
-        <v>3209.195570495281</v>
+        <v>3485.213776102411</v>
       </c>
       <c r="F3" t="n">
-        <v>6.732031496633433</v>
+        <v>6.902482648627746</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -473,27 +473,29 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>180.994</v>
+        <v>160</v>
       </c>
       <c r="C4" t="n">
-        <v>127.4114064737958</v>
+        <v>159.7812814725972</v>
       </c>
       <c r="D4" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="E4" t="n">
-        <v>2685.02681577298</v>
+        <v>2786.064460246689</v>
       </c>
       <c r="F4" t="n">
-        <v>6.973902706974799</v>
+        <v>7.228660146296163</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Região Bifásica</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>98.55751270092014</v>
+          <t>Vapor Superaquecido</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,19 +503,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>39.00600000000001</v>
+        <v>27.91999999999999</v>
       </c>
       <c r="C5" t="n">
-        <v>400.0000000000002</v>
+        <v>159.7812814725972</v>
       </c>
       <c r="D5" t="n">
-        <v>43</v>
+        <v>2.45</v>
       </c>
       <c r="E5" t="n">
-        <v>3209.195570495281</v>
+        <v>2786.064460246689</v>
       </c>
       <c r="F5" t="n">
-        <v>6.732031496633434</v>
+        <v>7.228660146296163</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -531,19 +533,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>39.00600000000001</v>
+        <v>27.91999999999999</v>
       </c>
       <c r="C6" t="n">
-        <v>41.50876547963827</v>
+        <v>38.99956426486409</v>
       </c>
       <c r="D6" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E6" t="n">
-        <v>2277.845295993763</v>
+        <v>2320.984770641278</v>
       </c>
       <c r="F6" t="n">
-        <v>7.27911719799108</v>
+        <v>7.471206206942995</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -551,7 +553,7 @@
         </is>
       </c>
       <c r="H6" t="n">
-        <v>87.58055933666739</v>
+        <v>89.58897492161357</v>
       </c>
     </row>
     <row r="7">
@@ -559,19 +561,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>39.00600000000001</v>
+        <v>27.91999999999999</v>
       </c>
       <c r="C7" t="n">
-        <v>41.50876547963827</v>
+        <v>38.99956426486409</v>
       </c>
       <c r="D7" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E7" t="n">
-        <v>173.8398003706382</v>
+        <v>163.3512673682423</v>
       </c>
       <c r="F7" t="n">
-        <v>0.5924911559165427</v>
+        <v>0.5590277185493048</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -587,19 +589,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>39.00600000000001</v>
+        <v>27.91999999999999</v>
       </c>
       <c r="C8" t="n">
-        <v>41.53552743030059</v>
+        <v>39.02545953108677</v>
       </c>
       <c r="D8" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="E8" t="n">
-        <v>174.1652036954723</v>
+        <v>163.670981355732</v>
       </c>
       <c r="F8" t="n">
-        <v>0.5927497189589911</v>
+        <v>0.5592838029695297</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -617,19 +619,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>39.00600000000001</v>
+        <v>25.32343999999999</v>
       </c>
       <c r="C9" t="n">
-        <v>41.53552743030059</v>
+        <v>39.02545953108677</v>
       </c>
       <c r="D9" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="E9" t="n">
-        <v>174.1652036954723</v>
+        <v>163.670981355732</v>
       </c>
       <c r="F9" t="n">
-        <v>0.5927497189589911</v>
+        <v>0.5592838029695297</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -647,19 +649,19 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>2.596559999999999</v>
       </c>
       <c r="C10" t="n">
-        <v>41.53552743030059</v>
+        <v>39.02545953108677</v>
       </c>
       <c r="D10" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="E10" t="n">
-        <v>174.1652036954723</v>
+        <v>163.670981355732</v>
       </c>
       <c r="F10" t="n">
-        <v>0.5927497189589911</v>
+        <v>0.5592838029695297</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -677,27 +679,29 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>180.994</v>
+        <v>132.08</v>
       </c>
       <c r="C11" t="n">
-        <v>127.4114064737958</v>
+        <v>159.7812814725972</v>
       </c>
       <c r="D11" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="E11" t="n">
-        <v>2685.02681577298</v>
+        <v>2786.064460246689</v>
       </c>
       <c r="F11" t="n">
-        <v>6.973902706974799</v>
+        <v>7.228660146296163</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Região Bifásica</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>98.55751270092014</v>
+          <t>Vapor Superaquecido</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="12">
@@ -705,27 +709,29 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>175.021198</v>
+        <v>127.39116</v>
       </c>
       <c r="C12" t="n">
-        <v>127.4114064737958</v>
+        <v>159.7812814725972</v>
       </c>
       <c r="D12" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="E12" t="n">
-        <v>2685.02681577298</v>
+        <v>2786.064460246689</v>
       </c>
       <c r="F12" t="n">
-        <v>6.973902706974799</v>
+        <v>7.228660146296163</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Região Bifásica</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>98.55751270092014</v>
+          <t>Vapor Superaquecido</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="13">
@@ -733,27 +739,29 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>175.021198</v>
+        <v>129.98772</v>
       </c>
       <c r="C13" t="n">
-        <v>127.4114064737958</v>
+        <v>135.0293897939138</v>
       </c>
       <c r="D13" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="E13" t="n">
-        <v>2685.02681577298</v>
+        <v>2733.681035015835</v>
       </c>
       <c r="F13" t="n">
-        <v>6.973902706974799</v>
+        <v>7.104043330705069</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Região Bifásica</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>98.55751270092014</v>
+          <t>Vapor Superaquecido</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="14">
@@ -761,19 +769,19 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>175.021198</v>
+        <v>129.98772</v>
       </c>
       <c r="C14" t="n">
-        <v>127.41</v>
+        <v>124.7</v>
       </c>
       <c r="D14" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="E14" t="n">
-        <v>535.3390061182986</v>
+        <v>523.807129249501</v>
       </c>
       <c r="F14" t="n">
-        <v>1.607215415285576</v>
+        <v>1.57834156883671</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -791,27 +799,29 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>5.972802</v>
+        <v>4.68884</v>
       </c>
       <c r="C15" t="n">
-        <v>127.4114064737958</v>
+        <v>159.7812814725972</v>
       </c>
       <c r="D15" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="E15" t="n">
-        <v>2685.02681577298</v>
+        <v>2786.064460246689</v>
       </c>
       <c r="F15" t="n">
-        <v>6.973902706974799</v>
+        <v>7.228660146296163</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Região Bifásica</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>98.55751270092014</v>
+          <t>Vapor Superaquecido</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="16">
@@ -819,29 +829,27 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>220</v>
+        <v>160</v>
       </c>
       <c r="C16" t="n">
-        <v>126.0765989488615</v>
+        <v>126.747064986006</v>
       </c>
       <c r="D16" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="E16" t="n">
-        <v>529.6649802618274</v>
+        <v>533.1038575673377</v>
       </c>
       <c r="F16" t="n">
-        <v>1.593026554910377</v>
+        <v>1.601645283153948</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Liquido Comprimido</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>Região Bifásica</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>0.02701189348001923</v>
       </c>
     </row>
     <row r="17">
@@ -849,19 +857,19 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>220</v>
+        <v>160</v>
       </c>
       <c r="C17" t="n">
-        <v>126.775992114098</v>
+        <v>128.4433685190416</v>
       </c>
       <c r="D17" t="n">
-        <v>43</v>
+        <v>68.59999999999999</v>
       </c>
       <c r="E17" t="n">
-        <v>535.4210765012648</v>
+        <v>544.2534780119456</v>
       </c>
       <c r="F17" t="n">
-        <v>1.596636470912502</v>
+        <v>1.61187695503517</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>

--- a/software/resultados_ciclogen.xlsx
+++ b/software/resultados_ciclogen.xlsx
@@ -413,19 +413,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>160</v>
+        <v>254.45</v>
       </c>
       <c r="C2" t="n">
         <v>530</v>
       </c>
       <c r="D2" t="n">
-        <v>68.59999999999999</v>
+        <v>65</v>
       </c>
       <c r="E2" t="n">
-        <v>3485.213776102411</v>
+        <v>3488.97239332325</v>
       </c>
       <c r="F2" t="n">
-        <v>6.902482648627746</v>
+        <v>6.930924188546035</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -443,19 +443,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>160</v>
+        <v>254.45</v>
       </c>
       <c r="C3" t="n">
         <v>530</v>
       </c>
       <c r="D3" t="n">
-        <v>68.59999999999999</v>
+        <v>65</v>
       </c>
       <c r="E3" t="n">
-        <v>3485.213776102411</v>
+        <v>3488.97239332325</v>
       </c>
       <c r="F3" t="n">
-        <v>6.902482648627746</v>
+        <v>6.930924188546035</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -473,19 +473,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>160</v>
+        <v>254.45</v>
       </c>
       <c r="C4" t="n">
-        <v>159.7812814725972</v>
+        <v>182.217146973062</v>
       </c>
       <c r="D4" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="E4" t="n">
-        <v>2786.064460246689</v>
+        <v>2832.043502651045</v>
       </c>
       <c r="F4" t="n">
-        <v>7.228660146296163</v>
+        <v>7.323045272477203</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -503,19 +503,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>27.91999999999999</v>
+        <v>116.28365</v>
       </c>
       <c r="C5" t="n">
-        <v>159.7812814725972</v>
+        <v>182.217146973062</v>
       </c>
       <c r="D5" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="E5" t="n">
-        <v>2786.064460246689</v>
+        <v>2832.043502651045</v>
       </c>
       <c r="F5" t="n">
-        <v>7.228660146296163</v>
+        <v>7.323045272477203</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -533,19 +533,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>27.91999999999999</v>
+        <v>116.28365</v>
       </c>
       <c r="C6" t="n">
-        <v>38.99956426486409</v>
+        <v>41.50876547963827</v>
       </c>
       <c r="D6" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="E6" t="n">
-        <v>2320.984770641278</v>
+        <v>2399.74282027538</v>
       </c>
       <c r="F6" t="n">
-        <v>7.471206206942995</v>
+        <v>7.66651312543588</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -553,7 +553,7 @@
         </is>
       </c>
       <c r="H6" t="n">
-        <v>89.58897492161357</v>
+        <v>92.65462087336374</v>
       </c>
     </row>
     <row r="7">
@@ -561,19 +561,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>27.91999999999999</v>
+        <v>116.28365</v>
       </c>
       <c r="C7" t="n">
-        <v>38.99956426486409</v>
+        <v>41.50876547963827</v>
       </c>
       <c r="D7" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="E7" t="n">
-        <v>163.3512673682423</v>
+        <v>173.8398003706382</v>
       </c>
       <c r="F7" t="n">
-        <v>0.5590277185493048</v>
+        <v>0.5924911559165427</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -589,19 +589,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>27.91999999999999</v>
+        <v>116.28365</v>
       </c>
       <c r="C8" t="n">
-        <v>39.02545953108677</v>
+        <v>41.53552743030059</v>
       </c>
       <c r="D8" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="E8" t="n">
-        <v>163.670981355732</v>
+        <v>174.1652036954723</v>
       </c>
       <c r="F8" t="n">
-        <v>0.5592838029695297</v>
+        <v>0.5927497189589911</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -619,19 +619,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>25.32343999999999</v>
+        <v>108.434503625</v>
       </c>
       <c r="C9" t="n">
-        <v>39.02545953108677</v>
+        <v>41.53552743030059</v>
       </c>
       <c r="D9" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="E9" t="n">
-        <v>163.670981355732</v>
+        <v>174.1652036954723</v>
       </c>
       <c r="F9" t="n">
-        <v>0.5592838029695297</v>
+        <v>0.5927497189589911</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -649,19 +649,19 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>2.596559999999999</v>
+        <v>7.849146375000002</v>
       </c>
       <c r="C10" t="n">
-        <v>39.02545953108677</v>
+        <v>41.53552743030059</v>
       </c>
       <c r="D10" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="E10" t="n">
-        <v>163.670981355732</v>
+        <v>174.1652036954723</v>
       </c>
       <c r="F10" t="n">
-        <v>0.5592838029695297</v>
+        <v>0.5927497189589911</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -679,19 +679,19 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>132.08</v>
+        <v>138.16635</v>
       </c>
       <c r="C11" t="n">
-        <v>159.7812814725972</v>
+        <v>182.217146973062</v>
       </c>
       <c r="D11" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="E11" t="n">
-        <v>2786.064460246689</v>
+        <v>2832.043502651045</v>
       </c>
       <c r="F11" t="n">
-        <v>7.228660146296163</v>
+        <v>7.323045272477203</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -709,19 +709,19 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>127.39116</v>
+        <v>132.156113775</v>
       </c>
       <c r="C12" t="n">
-        <v>159.7812814725972</v>
+        <v>182.217146973062</v>
       </c>
       <c r="D12" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="E12" t="n">
-        <v>2786.064460246689</v>
+        <v>2832.043502651045</v>
       </c>
       <c r="F12" t="n">
-        <v>7.228660146296163</v>
+        <v>7.323045272477203</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -739,29 +739,27 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>129.98772</v>
+        <v>140.00526015</v>
       </c>
       <c r="C13" t="n">
-        <v>135.0293897939138</v>
+        <v>127.4114064737958</v>
       </c>
       <c r="D13" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="E13" t="n">
-        <v>2733.681035015835</v>
+        <v>2683.034274047157</v>
       </c>
       <c r="F13" t="n">
-        <v>7.104043330705069</v>
+        <v>6.968928334272836</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Vapor Superaquecido</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>Região Bifásica</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>98.46615966701712</v>
       </c>
     </row>
     <row r="14">
@@ -769,19 +767,19 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>129.98772</v>
+        <v>140.00526015</v>
       </c>
       <c r="C14" t="n">
-        <v>124.7</v>
+        <v>90</v>
       </c>
       <c r="D14" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="E14" t="n">
-        <v>523.807129249501</v>
+        <v>377.1785444614983</v>
       </c>
       <c r="F14" t="n">
-        <v>1.57834156883671</v>
+        <v>1.192734915727295</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -799,19 +797,19 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>4.68884</v>
+        <v>6.010236224999999</v>
       </c>
       <c r="C15" t="n">
-        <v>159.7812814725972</v>
+        <v>182.217146973062</v>
       </c>
       <c r="D15" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="E15" t="n">
-        <v>2786.064460246689</v>
+        <v>2832.043502651045</v>
       </c>
       <c r="F15" t="n">
-        <v>7.228660146296163</v>
+        <v>7.323045272477203</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -829,27 +827,29 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>160</v>
+        <v>254.45</v>
       </c>
       <c r="C16" t="n">
-        <v>126.747064986006</v>
+        <v>83.21022094302083</v>
       </c>
       <c r="D16" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="E16" t="n">
-        <v>533.1038575673377</v>
+        <v>348.6490395056206</v>
       </c>
       <c r="F16" t="n">
-        <v>1.601645283153948</v>
+        <v>1.113430167482677</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Região Bifásica</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>0.02701189348001923</v>
+          <t>Liquido Comprimido</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="17">
@@ -857,19 +857,19 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>160</v>
+        <v>254.45</v>
       </c>
       <c r="C17" t="n">
-        <v>128.4433685190416</v>
+        <v>84.0846725437525</v>
       </c>
       <c r="D17" t="n">
-        <v>68.59999999999999</v>
+        <v>65</v>
       </c>
       <c r="E17" t="n">
-        <v>544.2534780119456</v>
+        <v>357.2416041823697</v>
       </c>
       <c r="F17" t="n">
-        <v>1.61187695503517</v>
+        <v>1.11947168026133</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>

--- a/software/resultados_ciclogen.xlsx
+++ b/software/resultados_ciclogen.xlsx
@@ -413,19 +413,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>254.45</v>
+        <v>250</v>
       </c>
       <c r="C2" t="n">
-        <v>530</v>
+        <v>320</v>
       </c>
       <c r="D2" t="n">
-        <v>65</v>
+        <v>22</v>
       </c>
       <c r="E2" t="n">
-        <v>3488.97239332325</v>
+        <v>3065.056341566094</v>
       </c>
       <c r="F2" t="n">
-        <v>6.930924188546035</v>
+        <v>6.796725879902986</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -443,19 +443,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>254.45</v>
+        <v>221.5</v>
       </c>
       <c r="C3" t="n">
-        <v>530</v>
+        <v>320</v>
       </c>
       <c r="D3" t="n">
-        <v>65</v>
+        <v>22</v>
       </c>
       <c r="E3" t="n">
-        <v>3488.97239332325</v>
+        <v>3065.056341566094</v>
       </c>
       <c r="F3" t="n">
-        <v>6.930924188546035</v>
+        <v>6.796725879902986</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -473,19 +473,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>254.45</v>
+        <v>221.5</v>
       </c>
       <c r="C4" t="n">
-        <v>182.217146973062</v>
+        <v>174.8941768640577</v>
       </c>
       <c r="D4" t="n">
         <v>2.5</v>
       </c>
       <c r="E4" t="n">
-        <v>2832.043502651045</v>
+        <v>2817.006492904334</v>
       </c>
       <c r="F4" t="n">
-        <v>7.323045272477203</v>
+        <v>7.289754939244287</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -503,19 +503,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>116.28365</v>
+        <v>28.50000000000002</v>
       </c>
       <c r="C5" t="n">
-        <v>182.217146973062</v>
+        <v>319.9999999999999</v>
       </c>
       <c r="D5" t="n">
-        <v>2.5</v>
+        <v>22</v>
       </c>
       <c r="E5" t="n">
-        <v>2832.043502651045</v>
+        <v>3065.056341566094</v>
       </c>
       <c r="F5" t="n">
-        <v>7.323045272477203</v>
+        <v>6.796725879902986</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -533,7 +533,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>116.28365</v>
+        <v>28.50000000000002</v>
       </c>
       <c r="C6" t="n">
         <v>41.50876547963827</v>
@@ -542,10 +542,10 @@
         <v>0.08</v>
       </c>
       <c r="E6" t="n">
-        <v>2399.74282027538</v>
+        <v>2313.856579806076</v>
       </c>
       <c r="F6" t="n">
-        <v>7.66651312543588</v>
+        <v>7.393562710918144</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -553,7 +553,7 @@
         </is>
       </c>
       <c r="H6" t="n">
-        <v>92.65462087336374</v>
+        <v>89.07955179903253</v>
       </c>
     </row>
     <row r="7">
@@ -561,7 +561,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>116.28365</v>
+        <v>28.50000000000002</v>
       </c>
       <c r="C7" t="n">
         <v>41.50876547963827</v>
@@ -570,7 +570,7 @@
         <v>0.08</v>
       </c>
       <c r="E7" t="n">
-        <v>173.8398003706382</v>
+        <v>173.8398003706387</v>
       </c>
       <c r="F7" t="n">
         <v>0.5924911559165427</v>
@@ -589,19 +589,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>116.28365</v>
+        <v>28.50000000000002</v>
       </c>
       <c r="C8" t="n">
-        <v>41.53552743030059</v>
+        <v>41.53552743031628</v>
       </c>
       <c r="D8" t="n">
         <v>2.5</v>
       </c>
       <c r="E8" t="n">
-        <v>174.1652036954723</v>
+        <v>174.1652036954729</v>
       </c>
       <c r="F8" t="n">
-        <v>0.5927497189589911</v>
+        <v>0.5927497189592826</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -619,19 +619,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>108.434503625</v>
+        <v>19.00950000000001</v>
       </c>
       <c r="C9" t="n">
-        <v>41.53552743030059</v>
+        <v>41.53552743031628</v>
       </c>
       <c r="D9" t="n">
         <v>2.5</v>
       </c>
       <c r="E9" t="n">
-        <v>174.1652036954723</v>
+        <v>174.1652036954729</v>
       </c>
       <c r="F9" t="n">
-        <v>0.5927497189589911</v>
+        <v>0.5927497189592826</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -649,19 +649,19 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>7.849146375000002</v>
+        <v>9.490500000000004</v>
       </c>
       <c r="C10" t="n">
-        <v>41.53552743030059</v>
+        <v>41.53552743031628</v>
       </c>
       <c r="D10" t="n">
         <v>2.5</v>
       </c>
       <c r="E10" t="n">
-        <v>174.1652036954723</v>
+        <v>174.1652036954729</v>
       </c>
       <c r="F10" t="n">
-        <v>0.5927497189589911</v>
+        <v>0.5927497189592826</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -679,19 +679,19 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>138.16635</v>
+        <v>221.5</v>
       </c>
       <c r="C11" t="n">
-        <v>182.217146973062</v>
+        <v>174.8941768640577</v>
       </c>
       <c r="D11" t="n">
         <v>2.5</v>
       </c>
       <c r="E11" t="n">
-        <v>2832.043502651045</v>
+        <v>2817.006492904334</v>
       </c>
       <c r="F11" t="n">
-        <v>7.323045272477203</v>
+        <v>7.289754939244287</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -709,19 +709,19 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>132.156113775</v>
+        <v>215.5195</v>
       </c>
       <c r="C12" t="n">
-        <v>182.217146973062</v>
+        <v>174.8941768640577</v>
       </c>
       <c r="D12" t="n">
         <v>2.5</v>
       </c>
       <c r="E12" t="n">
-        <v>2832.043502651045</v>
+        <v>2817.006492904334</v>
       </c>
       <c r="F12" t="n">
-        <v>7.323045272477203</v>
+        <v>7.289754939244287</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>140.00526015</v>
+        <v>225.01</v>
       </c>
       <c r="C13" t="n">
         <v>127.4114064737958</v>
@@ -748,10 +748,10 @@
         <v>2.5</v>
       </c>
       <c r="E13" t="n">
-        <v>2683.034274047157</v>
+        <v>2705.536401551786</v>
       </c>
       <c r="F13" t="n">
-        <v>6.968928334272836</v>
+        <v>7.025104808443722</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -759,7 +759,7 @@
         </is>
       </c>
       <c r="H13" t="n">
-        <v>98.46615966701712</v>
+        <v>99.49782569949188</v>
       </c>
     </row>
     <row r="14">
@@ -767,7 +767,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>140.00526015</v>
+        <v>225.01</v>
       </c>
       <c r="C14" t="n">
         <v>90</v>
@@ -797,19 +797,19 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>6.010236224999999</v>
+        <v>5.9805</v>
       </c>
       <c r="C15" t="n">
-        <v>182.217146973062</v>
+        <v>174.8941768640577</v>
       </c>
       <c r="D15" t="n">
         <v>2.5</v>
       </c>
       <c r="E15" t="n">
-        <v>2832.043502651045</v>
+        <v>2817.006492904334</v>
       </c>
       <c r="F15" t="n">
-        <v>7.323045272477203</v>
+        <v>7.289754939244287</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -827,19 +827,19 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>254.45</v>
+        <v>250</v>
       </c>
       <c r="C16" t="n">
-        <v>83.21022094302083</v>
+        <v>100.1968001138945</v>
       </c>
       <c r="D16" t="n">
         <v>2.5</v>
       </c>
       <c r="E16" t="n">
-        <v>348.6490395056206</v>
+        <v>420.1073802389807</v>
       </c>
       <c r="F16" t="n">
-        <v>1.113430167482677</v>
+        <v>1.309317439218598</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -857,19 +857,19 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>254.45</v>
+        <v>250</v>
       </c>
       <c r="C17" t="n">
-        <v>84.0846725437525</v>
+        <v>100.4932876541408</v>
       </c>
       <c r="D17" t="n">
-        <v>65</v>
+        <v>22</v>
       </c>
       <c r="E17" t="n">
-        <v>357.2416041823697</v>
+        <v>422.8205825802663</v>
       </c>
       <c r="F17" t="n">
-        <v>1.11947168026133</v>
+        <v>1.311135522056935</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
